--- a/IO_M2.1_new/M2.1b_outputs/M2.1b_Table1.xlsx
+++ b/IO_M2.1_new/M2.1b_outputs/M2.1b_Table1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="258">
   <si>
     <t>runname</t>
   </si>
@@ -853,6 +853,12 @@
     <t>Assumed return
 (Discount rate)</t>
   </si>
+  <si>
+    <t>Note: 
+1. All values are percentage (%).
+2. These are simulated scenarios that are intended to reflect main features of investment practices in certian return environments, they are not directly based on historical data. 
+3. It is assumed that all portfolios have the same Sharpe ratio of 0.46, and the Sharpe ratio does not change across risk-free rate regimes</t>
+  </si>
 </sst>
 </file>
 
@@ -1651,11 +1657,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,7 +2983,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,11 +3034,11 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
@@ -3126,13 +3132,13 @@
     <row r="10" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="207" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
+      <c r="C10" s="208" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
@@ -3296,14 +3302,14 @@
       <c r="L3" s="179"/>
       <c r="M3" s="179"/>
       <c r="O3" s="45"/>
-      <c r="P3" s="208" t="s">
+      <c r="P3" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
       <c r="V3" s="45"/>
     </row>
     <row r="4" spans="3:22" ht="45" x14ac:dyDescent="0.25">
@@ -3630,14 +3636,14 @@
       <c r="L10" s="180"/>
       <c r="M10" s="180"/>
       <c r="O10" s="45"/>
-      <c r="P10" s="207" t="s">
+      <c r="P10" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207"/>
-      <c r="U10" s="207"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208"/>
+      <c r="U10" s="208"/>
       <c r="V10" s="45"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
@@ -7891,23 +7897,23 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
-      <c r="O5" s="208"/>
-      <c r="P5" s="208"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
@@ -8083,25 +8089,25 @@
     </row>
     <row r="10" spans="1:19" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
-      <c r="L10" s="207" t="s">
+      <c r="L10" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
@@ -36944,7 +36950,7 @@
   <sheetData>
     <row r="6" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="207" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="209"/>
@@ -37396,11 +37402,11 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45"/>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
       <c r="F3" s="209"/>
       <c r="G3" s="209"/>
       <c r="H3" s="209"/>

--- a/IO_M2.1_new/M2.1b_outputs/M2.1b_Table1.xlsx
+++ b/IO_M2.1_new/M2.1b_outputs/M2.1b_Table1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -856,7 +856,7 @@
   <si>
     <t>Note: 
 1. All values are percentage (%).
-2. These are simulated scenarios that are intended to reflect main features of investment practices in certian return environments, they are not directly based on historical data. 
+2. These are simulated scenarios that are intended to reflect main features of investment practices in certain return environments, they are not directly based on historical data. 
 3. It is assumed that all portfolios have the same Sharpe ratio of 0.46, and the Sharpe ratio does not change across risk-free rate regimes</t>
   </si>
 </sst>
@@ -869,7 +869,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -985,6 +985,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1141,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1720,6 +1753,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,7 +1826,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2983,15 +3063,15 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="114"/>
-    <col min="3" max="3" width="20.875" style="114" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="114" customWidth="1"/>
     <col min="4" max="4" width="9" style="114" customWidth="1"/>
-    <col min="5" max="7" width="11.75" style="114" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" style="114" customWidth="1"/>
     <col min="8" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
@@ -3031,126 +3111,126 @@
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="228"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="231" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="231" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="231" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="231" t="s">
         <v>256</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="201" t="s">
+      <c r="B7" s="228"/>
+      <c r="C7" s="232" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="197">
+      <c r="D7" s="233">
         <v>6.7</v>
       </c>
-      <c r="E7" s="198">
+      <c r="E7" s="234">
         <v>7.5157231635036972</v>
       </c>
-      <c r="F7" s="197">
+      <c r="F7" s="233">
         <v>1.7733112250080365</v>
       </c>
-      <c r="G7" s="198">
+      <c r="G7" s="234">
         <v>7.5</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="202" t="s">
+      <c r="B8" s="228"/>
+      <c r="C8" s="235" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="236">
         <v>2.7</v>
       </c>
-      <c r="E8" s="196">
+      <c r="E8" s="237">
         <v>8.2199999999999989</v>
       </c>
-      <c r="F8" s="204">
+      <c r="F8" s="238">
         <v>12</v>
       </c>
-      <c r="G8" s="196">
+      <c r="G8" s="237">
         <v>7.5</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="202" t="s">
+      <c r="B9" s="228"/>
+      <c r="C9" s="235" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="200">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="E9" s="203">
+      <c r="D9" s="239">
+        <v>2.7</v>
+      </c>
+      <c r="E9" s="240">
         <v>3.5157231635036963</v>
       </c>
-      <c r="F9" s="200">
+      <c r="F9" s="239">
         <v>1.7733112250080365</v>
       </c>
-      <c r="G9" s="205">
+      <c r="G9" s="241">
         <v>3.4999999999999991</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="208" t="s">
+      <c r="B10" s="228"/>
+      <c r="C10" s="242" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -3255,6 +3335,7 @@
     <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3268,12 +3349,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="3.125" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="3.75" customWidth="1"/>
-    <col min="10" max="13" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="2.875" customWidth="1"/>
-    <col min="18" max="21" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="13" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:22" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3731,37 +3812,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="114"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="114" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="114"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="114" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="0.625" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="3.125" customWidth="1"/>
-    <col min="22" max="22" width="9.75" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
     <col min="25" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.375" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="11.375" customWidth="1"/>
-    <col min="33" max="33" width="13.125" customWidth="1"/>
-    <col min="34" max="34" width="12.25" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" customWidth="1"/>
     <col min="35" max="35" width="0" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="12" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" customWidth="1"/>
     <col min="38" max="45" width="0" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="2.875" customWidth="1"/>
-    <col min="47" max="48" width="13.75" style="166" customWidth="1"/>
+    <col min="46" max="46" width="2.85546875" customWidth="1"/>
+    <col min="47" max="48" width="13.7109375" style="166" customWidth="1"/>
     <col min="49" max="52" width="0" style="166" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="9.125" style="166"/>
-    <col min="54" max="55" width="10.25" style="166" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="166"/>
+    <col min="54" max="55" width="10.28515625" style="166" customWidth="1"/>
     <col min="56" max="56" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5877,29 +5958,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="114"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="1.75" style="114" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="114"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="114" customWidth="1"/>
     <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="1.75" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="11.375" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="2" customWidth="1"/>
-    <col min="20" max="22" width="10.25" customWidth="1"/>
+    <col min="20" max="22" width="10.28515625" customWidth="1"/>
     <col min="23" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="13.75" customWidth="1"/>
-    <col min="29" max="32" width="13.375" customWidth="1"/>
-    <col min="33" max="33" width="13.375" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="13.375" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="29" max="32" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="13.42578125" customWidth="1"/>
     <col min="36" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="2.625" customWidth="1"/>
-    <col min="45" max="46" width="10.25" customWidth="1"/>
-    <col min="47" max="50" width="10.25" hidden="1" customWidth="1"/>
-    <col min="51" max="53" width="10.25" customWidth="1"/>
+    <col min="44" max="44" width="2.5703125" customWidth="1"/>
+    <col min="45" max="46" width="10.28515625" customWidth="1"/>
+    <col min="47" max="50" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="51" max="53" width="10.28515625" customWidth="1"/>
     <col min="54" max="54" width="0" hidden="1" customWidth="1"/>
-    <col min="55" max="56" width="9.125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="9.125" style="114" hidden="1" customWidth="1"/>
+    <col min="55" max="56" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" style="114" hidden="1" customWidth="1"/>
     <col min="58" max="60" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7818,18 +7899,18 @@
   <dimension ref="A2:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="114"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="16" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="114"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8307,35 +8388,35 @@
       <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="37" collapsed="1"/>
-    <col min="3" max="3" width="9.125" style="40" collapsed="1"/>
-    <col min="4" max="5" width="9.125" style="37" collapsed="1"/>
-    <col min="6" max="9" width="10.875" style="36" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.625" style="36" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.875" style="44" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="10.875" style="41" customWidth="1" collapsed="1"/>
-    <col min="15" max="17" width="12.25" style="112" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.625" style="124" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" style="37" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="40" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="37" collapsed="1"/>
+    <col min="6" max="9" width="10.85546875" style="36" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" style="36" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" style="44" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="10.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="12.28515625" style="112" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.5703125" style="124" customWidth="1" collapsed="1"/>
     <col min="19" max="24" width="12" style="41" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="2.875" style="36" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="2.85546875" style="36" customWidth="1" collapsed="1"/>
     <col min="26" max="33" width="10" style="41" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.875" style="44" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.85546875" style="44" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="9"/>
     <col min="36" max="36" width="10" style="110" customWidth="1" collapsed="1"/>
-    <col min="37" max="42" width="11.125" style="124" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="10.625" style="124" customWidth="1" collapsed="1"/>
+    <col min="37" max="42" width="11.140625" style="124" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.5703125" style="124" customWidth="1" collapsed="1"/>
     <col min="44" max="49" width="12" style="41" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="2.875" style="36" customWidth="1" collapsed="1"/>
-    <col min="51" max="53" width="10.875" style="41" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="13.125" style="41" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="10.875" style="41" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="11.75" style="41" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="3.375" style="37" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="2.85546875" style="36" customWidth="1" collapsed="1"/>
+    <col min="51" max="53" width="10.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="13.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="10.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="11.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="3.42578125" style="37" customWidth="1" collapsed="1"/>
     <col min="58" max="60" width="12" style="44" customWidth="1" collapsed="1"/>
-    <col min="61" max="64" width="9.125" style="37"/>
-    <col min="65" max="16384" width="9.125" style="37" collapsed="1"/>
+    <col min="61" max="64" width="9.140625" style="37"/>
+    <col min="65" max="16384" width="9.140625" style="37" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -17749,7 +17830,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -26139,10 +26220,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.125" style="109" collapsed="1"/>
-    <col min="14" max="14" width="15.375" style="109" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="109" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" style="109" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -36144,7 +36225,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -36937,15 +37018,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.125" style="1" collapsed="1"/>
-    <col min="3" max="4" width="3.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="9.125" style="1" collapsed="1"/>
-    <col min="8" max="8" width="2.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="9.125" style="1" collapsed="1"/>
-    <col min="12" max="12" width="3.375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="3.375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="3.75" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="3.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="4" width="3.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="2.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="3.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="3.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37394,10 +37475,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="2.25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.25" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37448,7 +37529,7 @@
       <c r="R4" s="217"/>
       <c r="S4" s="45"/>
     </row>
-    <row r="5" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="51" t="s">
         <v>98</v>
